--- a/Trello Application Test Cases.xlsx
+++ b/Trello Application Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Add To Card (Web)" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="976">
   <si>
     <t>S.No</t>
   </si>
@@ -5922,12 +5922,18 @@
   <si>
     <t>It displays cover image in card with all the changes that are made</t>
   </si>
+  <si>
+    <t>Bug ID: 001</t>
+  </si>
+  <si>
+    <t>Bug ID: 002</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5996,6 +6002,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -6035,7 +6049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -6166,11 +6180,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6201,15 +6230,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6271,6 +6291,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6564,13 +6596,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="41.85546875" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
@@ -6581,1387 +6613,1387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>693</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="33"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>852</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>852</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>852</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>705</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>852</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
         <v>846</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>826</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>853</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="16" t="s">
         <v>728</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
         <v>729</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>827</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>828</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>829</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>857</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>858</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="16" t="s">
         <v>737</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="16" t="s">
         <v>848</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="16" t="s">
         <v>831</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="16" t="s">
         <v>849</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>832</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="16" t="s">
         <v>850</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="16" t="s">
         <v>833</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="16" t="s">
         <v>743</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
         <v>851</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="16" t="s">
         <v>859</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="16" t="s">
         <v>859</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="16" t="s">
         <v>860</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="18" t="s">
         <v>725</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="16" t="s">
         <v>859</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="18" t="s">
         <v>726</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="18" t="s">
         <v>727</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="19" t="s">
         <v>746</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="19" t="s">
         <v>834</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="19" t="s">
         <v>747</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="19" t="s">
         <v>748</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="19" t="s">
         <v>835</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="19" t="s">
         <v>886</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="19" t="s">
         <v>749</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="19" t="s">
         <v>836</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="19" t="s">
         <v>751</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="19" t="s">
         <v>837</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="19" t="s">
         <v>752</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="19" t="s">
         <v>753</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="19" t="s">
         <v>751</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="19" t="s">
         <v>838</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="19" t="s">
         <v>861</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="19" t="s">
         <v>889</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="19" t="s">
         <v>839</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="19" t="s">
         <v>862</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="19" t="s">
         <v>756</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="19" t="s">
         <v>840</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="19" t="s">
         <v>757</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="19" t="s">
         <v>890</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="19" t="s">
         <v>760</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="22" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="19" t="s">
         <v>761</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="19" t="s">
         <v>842</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="19" t="s">
         <v>843</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="19" t="s">
         <v>767</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="19" t="s">
         <v>769</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="19" t="s">
         <v>844</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="19" t="s">
         <v>770</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G36" s="25" t="s">
         <v>15</v>
       </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="29"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="18" t="s">
         <v>892</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="16" t="s">
         <v>863</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="16" t="s">
         <v>894</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="16" t="s">
         <v>893</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="16" t="s">
         <v>863</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="16" t="s">
         <v>895</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="16" t="s">
         <v>896</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="18" t="s">
         <v>897</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="16" t="s">
         <v>898</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="16" t="s">
         <v>899</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="18" t="s">
         <v>864</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="16" t="s">
         <v>901</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="16" t="s">
         <v>902</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16" t="s">
         <v>903</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="16" t="s">
         <v>865</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="16" t="s">
         <v>905</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="16" t="s">
         <v>904</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="24" t="s">
         <v>908</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>804</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16" t="s">
         <v>909</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="16" t="s">
         <v>911</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="16" t="s">
         <v>910</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16" t="s">
         <v>912</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="16" t="s">
         <v>913</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="16" t="s">
         <v>914</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16" t="s">
         <v>915</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="16" t="s">
         <v>869</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="16" t="s">
         <v>916</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="G46" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="31"/>
+      <c r="G46" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="28"/>
     </row>
     <row r="47" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16" t="s">
         <v>918</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="16" t="s">
         <v>870</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="16" t="s">
         <v>919</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="G47" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="32"/>
+      <c r="G47" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="29"/>
     </row>
     <row r="48" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16" t="s">
         <v>921</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="16" t="s">
         <v>871</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="16" t="s">
         <v>922</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="16" t="s">
         <v>923</v>
       </c>
-      <c r="G48" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="32"/>
+      <c r="G48" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="29"/>
     </row>
     <row r="49" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16" t="s">
         <v>924</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="16" t="s">
         <v>872</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="16" t="s">
         <v>925</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="16" t="s">
         <v>926</v>
       </c>
-      <c r="G49" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="32"/>
+      <c r="G49" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="29"/>
     </row>
     <row r="50" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16" t="s">
         <v>927</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="16" t="s">
         <v>873</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="16" t="s">
         <v>929</v>
       </c>
-      <c r="G50" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="32"/>
+      <c r="G50" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="29"/>
     </row>
     <row r="51" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="14" t="s">
         <v>811</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16" t="s">
         <v>930</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="16" t="s">
         <v>931</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="16" t="s">
         <v>932</v>
       </c>
-      <c r="G51" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="32"/>
+      <c r="G51" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="29"/>
     </row>
     <row r="52" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16" t="s">
         <v>933</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="16" t="s">
         <v>875</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="16" t="s">
         <v>934</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="16" t="s">
         <v>935</v>
       </c>
-      <c r="G52" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="32"/>
+      <c r="G52" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:8" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="14" t="s">
         <v>813</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16" t="s">
         <v>936</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="16" t="s">
         <v>876</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="16" t="s">
         <v>937</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="16" t="s">
         <v>938</v>
       </c>
-      <c r="G53" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="32"/>
+      <c r="G53" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="29"/>
     </row>
     <row r="54" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="32"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="17"/>
+      <c r="C55" s="16" t="s">
         <v>939</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="16" t="s">
         <v>940</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="16" t="s">
         <v>941</v>
       </c>
-      <c r="G55" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="32"/>
+      <c r="G55" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="29"/>
     </row>
     <row r="56" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16" t="s">
         <v>784</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="16" t="s">
         <v>942</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="G56" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="32"/>
+      <c r="G56" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="29"/>
     </row>
     <row r="57" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="16" t="s">
         <v>944</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="16" t="s">
         <v>878</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="16" t="s">
         <v>945</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="16" t="s">
         <v>946</v>
       </c>
-      <c r="G57" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="32"/>
+      <c r="G57" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="29"/>
     </row>
     <row r="58" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="16" t="s">
         <v>947</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="16" t="s">
         <v>879</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="16" t="s">
         <v>948</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="16" t="s">
         <v>949</v>
       </c>
-      <c r="G58" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="32"/>
+      <c r="G58" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="29"/>
     </row>
     <row r="59" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="14" t="s">
         <v>818</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="16"/>
+      <c r="C59" s="16" t="s">
         <v>950</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="16" t="s">
         <v>951</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="16" t="s">
         <v>952</v>
       </c>
-      <c r="G59" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="32"/>
+      <c r="G59" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="29"/>
     </row>
     <row r="60" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="14" t="s">
         <v>819</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16" t="s">
         <v>953</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="16" t="s">
         <v>881</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="16" t="s">
         <v>954</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="16" t="s">
         <v>955</v>
       </c>
-      <c r="G60" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="32"/>
+      <c r="G60" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="29"/>
     </row>
     <row r="61" spans="1:8" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="16"/>
+      <c r="C61" s="16" t="s">
         <v>956</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="16" t="s">
         <v>882</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="16" t="s">
         <v>957</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="16" t="s">
         <v>958</v>
       </c>
-      <c r="G61" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="32"/>
+      <c r="G61" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="29"/>
     </row>
     <row r="62" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="14" t="s">
         <v>821</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="16"/>
+      <c r="C62" s="16" t="s">
         <v>959</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="16" t="s">
         <v>883</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="16" t="s">
         <v>960</v>
       </c>
-      <c r="F62" s="19" t="s">
+      <c r="F62" s="16" t="s">
         <v>961</v>
       </c>
-      <c r="G62" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="32"/>
+      <c r="G62" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="29"/>
     </row>
     <row r="63" spans="1:8" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16" t="s">
         <v>962</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="16" t="s">
         <v>884</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="16" t="s">
         <v>963</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="16" t="s">
         <v>964</v>
       </c>
-      <c r="G63" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="32"/>
+      <c r="G63" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="29"/>
     </row>
     <row r="64" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16" t="s">
         <v>965</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="16" t="s">
         <v>883</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="16" t="s">
         <v>966</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="G64" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="32"/>
+      <c r="G64" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="29"/>
     </row>
     <row r="65" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="14" t="s">
         <v>824</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="16"/>
+      <c r="C65" s="16" t="s">
         <v>968</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="16" t="s">
         <v>883</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="16" t="s">
         <v>969</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F65" s="16" t="s">
         <v>970</v>
       </c>
-      <c r="G65" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="32"/>
+      <c r="G65" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="29"/>
     </row>
     <row r="66" spans="1:8" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19" t="s">
+      <c r="B66" s="16"/>
+      <c r="C66" s="16" t="s">
         <v>971</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="16" t="s">
         <v>972</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="F66" s="16" t="s">
         <v>973</v>
       </c>
-      <c r="G66" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="32"/>
+      <c r="G66" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7976,8 +8008,8 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I46"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8005,31 +8037,31 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8037,7 +8069,7 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -8064,7 +8096,7 @@
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
@@ -8089,7 +8121,7 @@
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -8114,7 +8146,7 @@
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8139,7 +8171,7 @@
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
@@ -8164,7 +8196,7 @@
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -8191,7 +8223,7 @@
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
@@ -8216,7 +8248,7 @@
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
@@ -8241,7 +8273,7 @@
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
@@ -8266,7 +8298,7 @@
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
@@ -8291,7 +8323,7 @@
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
@@ -8316,7 +8348,7 @@
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
@@ -8341,7 +8373,7 @@
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
@@ -8366,7 +8398,7 @@
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
@@ -8391,7 +8423,7 @@
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
@@ -8416,7 +8448,7 @@
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="4" t="s">
         <v>65</v>
       </c>
@@ -8435,13 +8467,15 @@
       <c r="H18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="35" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="32" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -8462,13 +8496,13 @@
       <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
@@ -8493,7 +8527,7 @@
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="4" t="s">
         <v>80</v>
       </c>
@@ -8518,7 +8552,7 @@
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="4" t="s">
         <v>85</v>
       </c>
@@ -8543,7 +8577,7 @@
       <c r="A23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="4" t="s">
         <v>85</v>
       </c>
@@ -8568,7 +8602,7 @@
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="4" t="s">
         <v>92</v>
       </c>
@@ -8593,7 +8627,7 @@
       <c r="A25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="4" t="s">
         <v>92</v>
       </c>
@@ -8618,7 +8652,7 @@
       <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="4" t="s">
         <v>92</v>
       </c>
@@ -8643,7 +8677,7 @@
       <c r="A27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="4" t="s">
         <v>92</v>
       </c>
@@ -8668,7 +8702,7 @@
       <c r="A28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="4" t="s">
         <v>92</v>
       </c>
@@ -8693,7 +8727,7 @@
       <c r="A29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="4" t="s">
         <v>92</v>
       </c>
@@ -8718,7 +8752,7 @@
       <c r="A30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="4" t="s">
         <v>85</v>
       </c>
@@ -8743,7 +8777,7 @@
       <c r="A31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="4" t="s">
         <v>85</v>
       </c>
@@ -8768,7 +8802,7 @@
       <c r="A32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="4" t="s">
         <v>85</v>
       </c>
@@ -8787,13 +8821,15 @@
       <c r="H32" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="35" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -8814,13 +8850,13 @@
       <c r="H33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
@@ -8845,7 +8881,7 @@
       <c r="A35" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="4" t="s">
         <v>128</v>
       </c>
@@ -8870,7 +8906,7 @@
       <c r="A36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="4" t="s">
         <v>133</v>
       </c>
@@ -8895,7 +8931,7 @@
       <c r="A37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="4" t="s">
         <v>119</v>
       </c>
@@ -8920,7 +8956,7 @@
       <c r="A38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="4" t="s">
         <v>140</v>
       </c>
@@ -8945,7 +8981,7 @@
       <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="4" t="s">
         <v>119</v>
       </c>
@@ -8970,7 +9006,7 @@
       <c r="A40" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="4" t="s">
         <v>119</v>
       </c>
@@ -8995,7 +9031,7 @@
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="4" t="s">
         <v>119</v>
       </c>
@@ -9020,7 +9056,7 @@
       <c r="A42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="4" t="s">
         <v>119</v>
       </c>
@@ -9045,7 +9081,7 @@
       <c r="A43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="4" t="s">
         <v>119</v>
       </c>
@@ -9070,7 +9106,7 @@
       <c r="A44" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="32" t="s">
         <v>161</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -9097,7 +9133,7 @@
       <c r="A45" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="4" t="s">
         <v>11</v>
       </c>
@@ -9122,7 +9158,7 @@
       <c r="A46" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="13"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="4" t="s">
         <v>11</v>
       </c>
@@ -9192,31 +9228,31 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9386,7 +9422,7 @@
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="32" t="s">
         <v>243</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -9413,7 +9449,7 @@
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4" t="s">
         <v>248</v>
       </c>
@@ -9438,7 +9474,7 @@
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="4" t="s">
         <v>253</v>
       </c>
@@ -9463,7 +9499,7 @@
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="32" t="s">
         <v>258</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -9490,7 +9526,7 @@
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="4" t="s">
         <v>264</v>
       </c>
@@ -9515,7 +9551,7 @@
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="4" t="s">
         <v>264</v>
       </c>
@@ -9540,7 +9576,7 @@
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="4" t="s">
         <v>264</v>
       </c>
@@ -9565,7 +9601,7 @@
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="4" t="s">
         <v>264</v>
       </c>
@@ -9590,7 +9626,7 @@
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="4" t="s">
         <v>264</v>
       </c>
@@ -9615,7 +9651,7 @@
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="4" t="s">
         <v>264</v>
       </c>
@@ -9640,7 +9676,7 @@
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="4" t="s">
         <v>264</v>
       </c>
@@ -9665,7 +9701,7 @@
       <c r="A20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="4" t="s">
         <v>264</v>
       </c>
@@ -9690,7 +9726,7 @@
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="32" t="s">
         <v>281</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -9717,7 +9753,7 @@
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="4" t="s">
         <v>282</v>
       </c>
@@ -9742,7 +9778,7 @@
       <c r="A23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="4" t="s">
         <v>288</v>
       </c>
@@ -9767,7 +9803,7 @@
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="4" t="s">
         <v>290</v>
       </c>
@@ -9792,7 +9828,7 @@
       <c r="A25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="4" t="s">
         <v>295</v>
       </c>
@@ -9817,7 +9853,7 @@
       <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="32" t="s">
         <v>299</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -9844,7 +9880,7 @@
       <c r="A27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="4" t="s">
         <v>300</v>
       </c>
@@ -9869,7 +9905,7 @@
       <c r="A28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="4" t="s">
         <v>306</v>
       </c>
@@ -9894,7 +9930,7 @@
       <c r="A29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="4" t="s">
         <v>665</v>
       </c>
@@ -9919,7 +9955,7 @@
       <c r="A30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="4" t="s">
         <v>665</v>
       </c>
@@ -9944,7 +9980,7 @@
       <c r="A31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="4" t="s">
         <v>665</v>
       </c>
@@ -9969,7 +10005,7 @@
       <c r="A32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="4" t="s">
         <v>665</v>
       </c>
@@ -9994,7 +10030,7 @@
       <c r="A33" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="4" t="s">
         <v>665</v>
       </c>
@@ -10019,7 +10055,7 @@
       <c r="A34" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="4" t="s">
         <v>665</v>
       </c>
@@ -10044,7 +10080,7 @@
       <c r="A35" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="4" t="s">
         <v>665</v>
       </c>
@@ -10069,7 +10105,7 @@
       <c r="A36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="4" t="s">
         <v>665</v>
       </c>
@@ -10094,7 +10130,7 @@
       <c r="A37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="4" t="s">
         <v>672</v>
       </c>
@@ -10119,7 +10155,7 @@
       <c r="A38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="4" t="s">
         <v>330</v>
       </c>
@@ -10144,7 +10180,7 @@
       <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="4" t="s">
         <v>673</v>
       </c>
@@ -10169,7 +10205,7 @@
       <c r="A40" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="4" t="s">
         <v>337</v>
       </c>
@@ -10194,7 +10230,7 @@
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="32" t="s">
         <v>341</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -10221,7 +10257,7 @@
       <c r="A42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="4" t="s">
         <v>342</v>
       </c>
@@ -10246,7 +10282,7 @@
       <c r="A43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="4" t="s">
         <v>665</v>
       </c>
@@ -10271,7 +10307,7 @@
       <c r="A44" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="4" t="s">
         <v>665</v>
       </c>
@@ -10296,7 +10332,7 @@
       <c r="A45" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="4" t="s">
         <v>678</v>
       </c>
@@ -10321,7 +10357,7 @@
       <c r="A46" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="4" t="s">
         <v>665</v>
       </c>
@@ -10346,7 +10382,7 @@
       <c r="A47" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="4" t="s">
         <v>665</v>
       </c>
@@ -10371,7 +10407,7 @@
       <c r="A48" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="4" t="s">
         <v>665</v>
       </c>
@@ -10396,7 +10432,7 @@
       <c r="A49" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="4" t="s">
         <v>678</v>
       </c>
@@ -10421,7 +10457,7 @@
       <c r="A50" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="4" t="s">
         <v>678</v>
       </c>
@@ -10446,7 +10482,7 @@
       <c r="A51" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="4" t="s">
         <v>325</v>
       </c>
@@ -10471,7 +10507,7 @@
       <c r="A52" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B52" s="13"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="4" t="s">
         <v>673</v>
       </c>
@@ -10496,7 +10532,7 @@
       <c r="A53" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="32" t="s">
         <v>363</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -10523,7 +10559,7 @@
       <c r="A54" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B54" s="12"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="4" t="s">
         <v>364</v>
       </c>
@@ -10548,7 +10584,7 @@
       <c r="A55" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B55" s="12"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="4" t="s">
         <v>248</v>
       </c>
@@ -10573,7 +10609,7 @@
       <c r="A56" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B56" s="13"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="8" t="s">
         <v>379</v>
       </c>
@@ -10598,7 +10634,7 @@
       <c r="A57" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="32" t="s">
         <v>385</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -10625,7 +10661,7 @@
       <c r="A58" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="4" t="s">
         <v>325</v>
       </c>
@@ -10650,7 +10686,7 @@
       <c r="A59" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="4" t="s">
         <v>396</v>
       </c>
@@ -10675,7 +10711,7 @@
       <c r="A60" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B60" s="13"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="4" t="s">
         <v>396</v>
       </c>
@@ -10700,7 +10736,7 @@
       <c r="A61" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="32" t="s">
         <v>407</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -10727,7 +10763,7 @@
       <c r="A62" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B62" s="12"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="4" t="s">
         <v>408</v>
       </c>
@@ -10752,7 +10788,7 @@
       <c r="A63" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B63" s="12"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="4" t="s">
         <v>248</v>
       </c>
@@ -10777,7 +10813,7 @@
       <c r="A64" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B64" s="12"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="4" t="s">
         <v>421</v>
       </c>
@@ -10802,7 +10838,7 @@
       <c r="A65" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B65" s="12"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="4" t="s">
         <v>427</v>
       </c>
@@ -10827,7 +10863,7 @@
       <c r="A66" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B66" s="12"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="4" t="s">
         <v>427</v>
       </c>
@@ -10852,7 +10888,7 @@
       <c r="A67" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B67" s="12"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="4" t="s">
         <v>427</v>
       </c>
@@ -10877,7 +10913,7 @@
       <c r="A68" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B68" s="12"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="4" t="s">
         <v>427</v>
       </c>
@@ -10902,7 +10938,7 @@
       <c r="A69" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B69" s="12"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="4" t="s">
         <v>427</v>
       </c>
@@ -10927,7 +10963,7 @@
       <c r="A70" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B70" s="12"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="4" t="s">
         <v>427</v>
       </c>
@@ -10952,7 +10988,7 @@
       <c r="A71" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B71" s="12"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="4" t="s">
         <v>427</v>
       </c>
@@ -10977,7 +11013,7 @@
       <c r="A72" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="4" t="s">
         <v>427</v>
       </c>
@@ -11002,7 +11038,7 @@
       <c r="A73" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B73" s="12"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="4" t="s">
         <v>456</v>
       </c>
@@ -11027,7 +11063,7 @@
       <c r="A74" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="4" t="s">
         <v>456</v>
       </c>
@@ -11052,7 +11088,7 @@
       <c r="A75" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="32" t="s">
         <v>467</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -11079,7 +11115,7 @@
       <c r="A76" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B76" s="12"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="4" t="s">
         <v>467</v>
       </c>
@@ -11104,7 +11140,7 @@
       <c r="A77" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B77" s="12"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="4" t="s">
         <v>478</v>
       </c>
@@ -11129,7 +11165,7 @@
       <c r="A78" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B78" s="12"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="4" t="s">
         <v>478</v>
       </c>
@@ -11154,7 +11190,7 @@
       <c r="A79" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B79" s="12"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="4" t="s">
         <v>487</v>
       </c>
@@ -11179,7 +11215,7 @@
       <c r="A80" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B80" s="13"/>
+      <c r="B80" s="34"/>
       <c r="C80" s="4" t="s">
         <v>487</v>
       </c>
@@ -11231,7 +11267,7 @@
       <c r="A82" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="32" t="s">
         <v>503</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -11258,7 +11294,7 @@
       <c r="A83" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B83" s="12"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="4" t="s">
         <v>510</v>
       </c>
@@ -11283,7 +11319,7 @@
       <c r="A84" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B84" s="12"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="4" t="s">
         <v>515</v>
       </c>
@@ -11308,7 +11344,7 @@
       <c r="A85" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B85" s="12"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="4" t="s">
         <v>520</v>
       </c>
@@ -11333,7 +11369,7 @@
       <c r="A86" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B86" s="12"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="4" t="s">
         <v>295</v>
       </c>
@@ -11358,7 +11394,7 @@
       <c r="A87" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B87" s="12"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="4" t="s">
         <v>281</v>
       </c>
@@ -11383,7 +11419,7 @@
       <c r="A88" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B88" s="12"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="4" t="s">
         <v>527</v>
       </c>
@@ -11408,7 +11444,7 @@
       <c r="A89" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B89" s="12"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="4" t="s">
         <v>281</v>
       </c>
@@ -11433,7 +11469,7 @@
       <c r="A90" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B90" s="13"/>
+      <c r="B90" s="34"/>
       <c r="C90" s="4" t="s">
         <v>510</v>
       </c>
@@ -11458,7 +11494,7 @@
       <c r="A91" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="32" t="s">
         <v>536</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -11485,7 +11521,7 @@
       <c r="A92" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B92" s="12"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="4" t="s">
         <v>543</v>
       </c>
@@ -11510,7 +11546,7 @@
       <c r="A93" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B93" s="12"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="4" t="s">
         <v>547</v>
       </c>
@@ -11535,7 +11571,7 @@
       <c r="A94" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B94" s="12"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="4" t="s">
         <v>553</v>
       </c>
@@ -11560,7 +11596,7 @@
       <c r="A95" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B95" s="12"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="4" t="s">
         <v>559</v>
       </c>
@@ -11585,7 +11621,7 @@
       <c r="A96" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B96" s="12"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="8" t="s">
         <v>565</v>
       </c>
@@ -11610,7 +11646,7 @@
       <c r="A97" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B97" s="12"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="8" t="s">
         <v>565</v>
       </c>
@@ -11635,7 +11671,7 @@
       <c r="A98" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B98" s="13"/>
+      <c r="B98" s="34"/>
       <c r="C98" s="4" t="s">
         <v>543</v>
       </c>
@@ -11660,7 +11696,7 @@
       <c r="A99" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="32" t="s">
         <v>578</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -11687,7 +11723,7 @@
       <c r="A100" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B100" s="12"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="4" t="s">
         <v>579</v>
       </c>
@@ -11712,7 +11748,7 @@
       <c r="A101" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B101" s="13"/>
+      <c r="B101" s="34"/>
       <c r="C101" s="4" t="s">
         <v>579</v>
       </c>
@@ -11737,7 +11773,7 @@
       <c r="A102" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="32" t="s">
         <v>592</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -11764,7 +11800,7 @@
       <c r="A103" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B103" s="12"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="4" t="s">
         <v>593</v>
       </c>
@@ -11789,7 +11825,7 @@
       <c r="A104" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B104" s="13"/>
+      <c r="B104" s="34"/>
       <c r="C104" s="4" t="s">
         <v>593</v>
       </c>
@@ -11814,7 +11850,7 @@
       <c r="A105" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="32" t="s">
         <v>608</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -11841,7 +11877,7 @@
       <c r="A106" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B106" s="12"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="4" t="s">
         <v>609</v>
       </c>
@@ -11866,7 +11902,7 @@
       <c r="A107" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B107" s="13"/>
+      <c r="B107" s="34"/>
       <c r="C107" s="4" t="s">
         <v>609</v>
       </c>
@@ -11891,7 +11927,7 @@
       <c r="A108" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="32" t="s">
         <v>624</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -11918,7 +11954,7 @@
       <c r="A109" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B109" s="12"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="4" t="s">
         <v>625</v>
       </c>
@@ -11943,7 +11979,7 @@
       <c r="A110" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B110" s="12"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="4" t="s">
         <v>625</v>
       </c>
@@ -11968,7 +12004,7 @@
       <c r="A111" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B111" s="13"/>
+      <c r="B111" s="34"/>
       <c r="C111" s="4" t="s">
         <v>625</v>
       </c>
@@ -11993,7 +12029,7 @@
       <c r="A112" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="32" t="s">
         <v>644</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -12020,7 +12056,7 @@
       <c r="A113" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B113" s="13"/>
+      <c r="B113" s="34"/>
       <c r="C113" s="4" t="s">
         <v>651</v>
       </c>
@@ -12043,6 +12079,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B40"/>
+    <mergeCell ref="B41:B52"/>
     <mergeCell ref="B102:B104"/>
     <mergeCell ref="B105:B107"/>
     <mergeCell ref="B108:B111"/>
@@ -12053,12 +12095,6 @@
     <mergeCell ref="B82:B90"/>
     <mergeCell ref="B91:B98"/>
     <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B40"/>
-    <mergeCell ref="B41:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
